--- a/output/202101_fixed_2023-04-19_.xlsx
+++ b/output/202101_fixed_2023-04-19_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgiar-my.sharepoint.com/personal/luis_delgado_cgiar_org/Documents/Data Analysis/2022GWAS4env/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_22C8F6D8E2CA3EA1CD7801D94409E93A673DB371" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4692591D-EB32-4FEA-A774-FF61135B142F}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_22C8F6D8E2CA3EA1CD7801D94409E93A673DB371" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB80CD16-3AB9-42F3-80A8-B3D5434DD901}"/>
   <bookViews>
-    <workbookView xWindow="44880" yWindow="1500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44880" yWindow="1500" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_fixed" sheetId="1" r:id="rId1"/>
@@ -1896,12 +1896,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1916,8 +1928,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2216,7 +2230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ273"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -48435,6225 +48449,6225 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G273"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.81640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>7</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>2</v>
       </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12" s="1">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>5</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>2</v>
       </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>14</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>2</v>
       </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>15</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>16</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>2</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>17</v>
       </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>18</v>
       </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
         <v>2</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>19</v>
       </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>20</v>
       </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>21</v>
       </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22">
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
         <v>5</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>22</v>
       </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23">
-        <v>6</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="2">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>23</v>
       </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24">
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
         <v>7</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>24</v>
       </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1">
         <v>8</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>25</v>
       </c>
-      <c r="C26">
-        <v>4</v>
-      </c>
-      <c r="D26">
+      <c r="C26" s="1">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1">
         <v>8</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="2">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>26</v>
       </c>
-      <c r="C27">
-        <v>4</v>
-      </c>
-      <c r="D27">
+      <c r="C27" s="1">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1">
         <v>7</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="2">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>27</v>
       </c>
-      <c r="C28">
-        <v>4</v>
-      </c>
-      <c r="D28">
-        <v>6</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="C28" s="1">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>28</v>
       </c>
-      <c r="C29">
-        <v>4</v>
-      </c>
-      <c r="D29">
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
         <v>5</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="2">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>29</v>
       </c>
-      <c r="C30">
-        <v>4</v>
-      </c>
-      <c r="D30">
-        <v>4</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="C30" s="1">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="2">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>30</v>
       </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="C31" s="1">
+        <v>4</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="2">
         <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>31</v>
       </c>
-      <c r="C32">
-        <v>4</v>
-      </c>
-      <c r="D32">
+      <c r="C32" s="1">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1">
         <v>2</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="2">
         <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>32</v>
       </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="C33" s="1">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="2">
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>33</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>5</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="2">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>34</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>5</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>2</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="2">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>35</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>5</v>
       </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D36" s="1">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="2">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>36</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>5</v>
       </c>
-      <c r="D37">
-        <v>4</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D37" s="1">
+        <v>4</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="2">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>37</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>5</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>5</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>38</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>5</v>
       </c>
-      <c r="D39">
-        <v>6</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="D39" s="1">
+        <v>6</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>39</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>5</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>7</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="2">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>40</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>5</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>8</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>41</v>
       </c>
-      <c r="C42">
-        <v>6</v>
-      </c>
-      <c r="D42">
+      <c r="C42" s="1">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1">
         <v>8</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="2">
         <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>42</v>
       </c>
-      <c r="C43">
-        <v>6</v>
-      </c>
-      <c r="D43">
+      <c r="C43" s="1">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1">
         <v>7</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="2">
         <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>43</v>
       </c>
-      <c r="C44">
-        <v>6</v>
-      </c>
-      <c r="D44">
-        <v>6</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="C44" s="1">
+        <v>6</v>
+      </c>
+      <c r="D44" s="1">
+        <v>6</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="2">
         <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>44</v>
       </c>
-      <c r="C45">
-        <v>6</v>
-      </c>
-      <c r="D45">
+      <c r="C45" s="1">
+        <v>6</v>
+      </c>
+      <c r="D45" s="1">
         <v>5</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="2">
         <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>45</v>
       </c>
-      <c r="C46">
-        <v>6</v>
-      </c>
-      <c r="D46">
-        <v>4</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="C46" s="1">
+        <v>6</v>
+      </c>
+      <c r="D46" s="1">
+        <v>4</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="2">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>46</v>
       </c>
-      <c r="C47">
-        <v>6</v>
-      </c>
-      <c r="D47">
-        <v>3</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="C47" s="1">
+        <v>6</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="2">
         <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>47</v>
       </c>
-      <c r="C48">
-        <v>6</v>
-      </c>
-      <c r="D48">
+      <c r="C48" s="1">
+        <v>6</v>
+      </c>
+      <c r="D48" s="1">
         <v>2</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="2">
         <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>48</v>
       </c>
-      <c r="C49">
-        <v>6</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="C49" s="1">
+        <v>6</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="2">
         <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>49</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>7</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
         <v>50</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>7</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>2</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1">
         <v>51</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>7</v>
       </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="D52" s="1">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="2">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
         <v>52</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
         <v>7</v>
       </c>
-      <c r="D53">
-        <v>4</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="D53" s="1">
+        <v>4</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="2">
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1">
         <v>53</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
         <v>7</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="1">
         <v>5</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="2">
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
         <v>54</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <v>7</v>
       </c>
-      <c r="D55">
-        <v>6</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="D55" s="1">
+        <v>6</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="2">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <v>55</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>7</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
         <v>7</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="2">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1">
         <v>56</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
         <v>7</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="1">
         <v>8</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
         <v>57</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>8</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1">
         <v>8</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="2">
         <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="A59" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
         <v>58</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>8</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="1">
         <v>7</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="A60" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
         <v>59</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>8</v>
       </c>
-      <c r="D60">
-        <v>6</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="D60" s="1">
+        <v>6</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="2">
         <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="1">
         <v>60</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
         <v>8</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="1">
         <v>5</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="2">
         <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1">
         <v>61</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
         <v>8</v>
       </c>
-      <c r="D62">
-        <v>4</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="D62" s="1">
+        <v>4</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="2">
         <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="1">
         <v>62</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="1">
         <v>8</v>
       </c>
-      <c r="D63">
-        <v>3</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="D63" s="1">
+        <v>3</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="2">
         <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="A64" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="1">
         <v>63</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="1">
         <v>8</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="1">
         <v>2</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="2">
         <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="1">
         <v>64</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
         <v>8</v>
       </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="1">
         <v>65</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="1">
         <v>9</v>
       </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="D66" s="1">
+        <v>1</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="2">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="A67" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="1">
         <v>66</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1">
         <v>9</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="1">
         <v>2</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="2">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="A68" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="1">
         <v>67</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="1">
         <v>9</v>
       </c>
-      <c r="D68">
-        <v>3</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="D68" s="1">
+        <v>3</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="2">
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="A69" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="1">
         <v>68</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="1">
         <v>9</v>
       </c>
-      <c r="D69">
-        <v>4</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="D69" s="1">
+        <v>4</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="2">
         <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="A70" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="1">
         <v>69</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="1">
         <v>9</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="1">
         <v>5</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="2">
         <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="A71" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="1">
         <v>70</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="1">
         <v>9</v>
       </c>
-      <c r="D71">
-        <v>6</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="D71" s="1">
+        <v>6</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="2">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="A72" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="1">
         <v>71</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="1">
         <v>9</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="1">
         <v>7</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="2">
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+      <c r="A73" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="1">
         <v>72</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="1">
         <v>9</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="1">
         <v>8</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="2">
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="A74" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="1">
         <v>73</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1">
         <v>10</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="1">
         <v>8</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="2">
         <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+      <c r="A75" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="1">
         <v>74</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1">
         <v>10</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="1">
         <v>7</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+      <c r="A76" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="1">
         <v>75</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1">
         <v>10</v>
       </c>
-      <c r="D76">
-        <v>6</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="D76" s="1">
+        <v>6</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+      <c r="A77" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="1">
         <v>76</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="1">
         <v>10</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="1">
         <v>5</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="2">
         <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+      <c r="A78" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="1">
         <v>77</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="1">
         <v>10</v>
       </c>
-      <c r="D78">
-        <v>4</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="D78" s="1">
+        <v>4</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="2">
         <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+      <c r="A79" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="1">
         <v>78</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="1">
         <v>10</v>
       </c>
-      <c r="D79">
-        <v>3</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="D79" s="1">
+        <v>3</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="2">
         <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+      <c r="A80" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="1">
         <v>79</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="1">
         <v>10</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="1">
         <v>2</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="2">
         <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+      <c r="A81" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="1">
         <v>80</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="1">
         <v>10</v>
       </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="D81" s="1">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="2">
         <v>73</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+      <c r="A82" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="1">
         <v>81</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="1">
         <v>11</v>
       </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="D82" s="1">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="2">
         <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+      <c r="A83" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="1">
         <v>82</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="1">
         <v>11</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="1">
         <v>2</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="2">
         <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+      <c r="A84" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="1">
         <v>83</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="1">
         <v>11</v>
       </c>
-      <c r="D84">
-        <v>3</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="D84" s="1">
+        <v>3</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="2">
         <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+      <c r="A85" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="1">
         <v>84</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="1">
         <v>11</v>
       </c>
-      <c r="D85">
-        <v>4</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="D85" s="1">
+        <v>4</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="2">
         <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+      <c r="A86" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="1">
         <v>85</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="1">
         <v>11</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="1">
         <v>5</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="2">
         <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+      <c r="A87" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="1">
         <v>86</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="1">
         <v>11</v>
       </c>
-      <c r="D87">
-        <v>6</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="D87" s="1">
+        <v>6</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="2">
         <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+      <c r="A88" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="1">
         <v>87</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="1">
         <v>11</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="1">
         <v>7</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="2">
         <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+      <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="1">
         <v>88</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="1">
         <v>11</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="1">
         <v>8</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="2">
         <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+      <c r="A90" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="1">
         <v>89</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="1">
         <v>12</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="1">
         <v>8</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="2">
         <v>96</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+      <c r="A91" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="1">
         <v>90</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="1">
         <v>12</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="1">
         <v>7</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="1" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+      <c r="A92" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="1">
         <v>91</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="1">
         <v>12</v>
       </c>
-      <c r="D92">
-        <v>6</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="D92" s="1">
+        <v>6</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="2">
         <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+      <c r="A93" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="1">
         <v>92</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="1">
         <v>12</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="1">
         <v>5</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="2">
         <v>93</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+      <c r="A94" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="1">
         <v>93</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="1">
         <v>12</v>
       </c>
-      <c r="D94">
-        <v>4</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="D94" s="1">
+        <v>4</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="2">
         <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+      <c r="A95" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="1">
         <v>94</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="1">
         <v>12</v>
       </c>
-      <c r="D95">
-        <v>3</v>
-      </c>
-      <c r="E95" t="s">
+      <c r="D95" s="1">
+        <v>3</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="2">
         <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+      <c r="A96" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="1">
         <v>95</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="1">
         <v>12</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="1">
         <v>2</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="2">
         <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+      <c r="A97" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="1">
         <v>96</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="1">
         <v>12</v>
       </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="D97" s="1">
+        <v>1</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="2">
         <v>89</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+      <c r="A98" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="1">
         <v>97</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="1">
         <v>13</v>
       </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="D98" s="1">
+        <v>1</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="2">
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+      <c r="A99" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="1">
         <v>98</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="1">
         <v>13</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="1">
         <v>2</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="2">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+      <c r="A100" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="1">
         <v>99</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="1">
         <v>13</v>
       </c>
-      <c r="D100">
-        <v>3</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="D100" s="1">
+        <v>3</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="2">
         <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="A101" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="1">
         <v>100</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="1">
         <v>13</v>
       </c>
-      <c r="D101">
-        <v>4</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="D101" s="1">
+        <v>4</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+      <c r="A102" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="1">
         <v>101</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="1">
         <v>13</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="1">
         <v>5</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="2">
         <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+      <c r="A103" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="1">
         <v>102</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="1">
         <v>13</v>
       </c>
-      <c r="D103">
-        <v>6</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="D103" s="1">
+        <v>6</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="2">
         <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
+      <c r="A104" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="1">
         <v>103</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="1">
         <v>13</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="1">
         <v>7</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="2">
         <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+      <c r="A105" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="1">
         <v>104</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="1">
         <v>13</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="1">
         <v>8</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="2">
         <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+      <c r="A106" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="1">
         <v>105</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="1">
         <v>14</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="1">
         <v>8</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="2">
         <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+      <c r="A107" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="1">
         <v>106</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="1">
         <v>14</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="1">
         <v>7</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="2">
         <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
+      <c r="A108" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="1">
         <v>107</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="1">
         <v>14</v>
       </c>
-      <c r="D108">
-        <v>6</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="D108" s="1">
+        <v>6</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="2">
         <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
+      <c r="A109" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="1">
         <v>108</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="1">
         <v>14</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="1">
         <v>5</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="2">
         <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
+      <c r="A110" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="1">
         <v>109</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="1">
         <v>14</v>
       </c>
-      <c r="D110">
-        <v>4</v>
-      </c>
-      <c r="E110" t="s">
+      <c r="D110" s="1">
+        <v>4</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="2">
         <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
+      <c r="A111" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="1">
         <v>110</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="1">
         <v>14</v>
       </c>
-      <c r="D111">
-        <v>3</v>
-      </c>
-      <c r="E111" t="s">
+      <c r="D111" s="1">
+        <v>3</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="2">
         <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
+      <c r="A112" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="1">
         <v>111</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="1">
         <v>14</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="1">
         <v>2</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="2">
         <v>106</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
+      <c r="A113" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="1">
         <v>112</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="1">
         <v>14</v>
       </c>
-      <c r="D113">
-        <v>1</v>
-      </c>
-      <c r="E113" t="s">
+      <c r="D113" s="1">
+        <v>1</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="2">
         <v>105</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
+      <c r="A114" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="1">
         <v>113</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="1">
         <v>15</v>
       </c>
-      <c r="D114">
-        <v>1</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="D114" s="1">
+        <v>1</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="2">
         <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
+      <c r="A115" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="1">
         <v>114</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="1">
         <v>15</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="1">
         <v>2</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="2">
         <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
+      <c r="A116" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="1">
         <v>115</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="1">
         <v>15</v>
       </c>
-      <c r="D116">
-        <v>3</v>
-      </c>
-      <c r="E116" t="s">
+      <c r="D116" s="1">
+        <v>3</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
+      <c r="A117" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="1">
         <v>116</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="1">
         <v>15</v>
       </c>
-      <c r="D117">
-        <v>4</v>
-      </c>
-      <c r="E117" t="s">
+      <c r="D117" s="1">
+        <v>4</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="2">
         <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
+      <c r="A118" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="1">
         <v>117</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="1">
         <v>15</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="1">
         <v>5</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="2">
         <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
+      <c r="A119" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="1">
         <v>118</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="1">
         <v>15</v>
       </c>
-      <c r="D119">
-        <v>6</v>
-      </c>
-      <c r="E119" t="s">
+      <c r="D119" s="1">
+        <v>6</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="2">
         <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
+      <c r="A120" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="1">
         <v>119</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="1">
         <v>15</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="1">
         <v>7</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="2">
         <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
+      <c r="A121" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="1">
         <v>120</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="1">
         <v>15</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="1">
         <v>8</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G121">
+      <c r="G121" s="2">
         <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
+      <c r="A122" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="1">
         <v>121</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="1">
         <v>16</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="1">
         <v>8</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="2">
         <v>128</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
+      <c r="A123" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="1">
         <v>122</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="1">
         <v>16</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="1">
         <v>7</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="2">
         <v>127</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
+      <c r="A124" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="1">
         <v>123</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="1">
         <v>16</v>
       </c>
-      <c r="D124">
-        <v>6</v>
-      </c>
-      <c r="E124" t="s">
+      <c r="D124" s="1">
+        <v>6</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="2">
         <v>126</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
+      <c r="A125" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="1">
         <v>124</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="1">
         <v>16</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="1">
         <v>5</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E125" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="2">
         <v>125</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
+      <c r="A126" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="1">
         <v>125</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="1">
         <v>16</v>
       </c>
-      <c r="D126">
-        <v>4</v>
-      </c>
-      <c r="E126" t="s">
+      <c r="D126" s="1">
+        <v>4</v>
+      </c>
+      <c r="E126" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="2">
         <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
+      <c r="A127" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="1">
         <v>126</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="1">
         <v>16</v>
       </c>
-      <c r="D127">
-        <v>3</v>
-      </c>
-      <c r="E127" t="s">
+      <c r="D127" s="1">
+        <v>3</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="2">
         <v>123</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
+      <c r="A128" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="1">
         <v>127</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="1">
         <v>16</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="1">
         <v>2</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="2">
         <v>122</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
+      <c r="A129" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="1">
         <v>128</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="1">
         <v>16</v>
       </c>
-      <c r="D129">
-        <v>1</v>
-      </c>
-      <c r="E129" t="s">
+      <c r="D129" s="1">
+        <v>1</v>
+      </c>
+      <c r="E129" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="2">
         <v>121</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
+      <c r="A130" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="1">
         <v>129</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="1">
         <v>17</v>
       </c>
-      <c r="D130">
-        <v>1</v>
-      </c>
-      <c r="E130" t="s">
+      <c r="D130" s="1">
+        <v>1</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="2">
         <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
+      <c r="A131" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="1">
         <v>130</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="1">
         <v>17</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="1">
         <v>2</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="2">
         <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
+      <c r="A132" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="1">
         <v>131</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="1">
         <v>17</v>
       </c>
-      <c r="D132">
-        <v>3</v>
-      </c>
-      <c r="E132" t="s">
+      <c r="D132" s="1">
+        <v>3</v>
+      </c>
+      <c r="E132" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="G132">
+      <c r="G132" s="2">
         <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
+      <c r="A133" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="1">
         <v>132</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="1">
         <v>17</v>
       </c>
-      <c r="D133">
-        <v>4</v>
-      </c>
-      <c r="E133" t="s">
+      <c r="D133" s="1">
+        <v>4</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G133">
+      <c r="G133" s="2">
         <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
+      <c r="A134" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="1">
         <v>133</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="1">
         <v>17</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="1">
         <v>5</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E134" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="G134">
+      <c r="G134" s="2">
         <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
+      <c r="A135" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="1">
         <v>134</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="1">
         <v>17</v>
       </c>
-      <c r="D135">
-        <v>6</v>
-      </c>
-      <c r="E135" t="s">
+      <c r="D135" s="1">
+        <v>6</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G135">
+      <c r="G135" s="2">
         <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
+      <c r="A136" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="1">
         <v>135</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="1">
         <v>17</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="1">
         <v>7</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E136" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="G136">
+      <c r="G136" s="2">
         <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
+      <c r="A137" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="1">
         <v>136</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="1">
         <v>17</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="1">
         <v>8</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E137" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G137">
+      <c r="G137" s="2">
         <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
+      <c r="A138" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="1">
         <v>137</v>
       </c>
-      <c r="C138">
-        <v>1</v>
-      </c>
-      <c r="D138">
+      <c r="C138" s="1">
+        <v>1</v>
+      </c>
+      <c r="D138" s="1">
         <v>9</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E138" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="G138">
+      <c r="G138" s="2">
         <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
+      <c r="A139" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="1">
         <v>138</v>
       </c>
-      <c r="C139">
-        <v>1</v>
-      </c>
-      <c r="D139">
+      <c r="C139" s="1">
+        <v>1</v>
+      </c>
+      <c r="D139" s="1">
         <v>10</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E139" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="G139">
+      <c r="G139" s="2">
         <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
+      <c r="A140" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="1">
         <v>139</v>
       </c>
-      <c r="C140">
-        <v>1</v>
-      </c>
-      <c r="D140">
+      <c r="C140" s="1">
+        <v>1</v>
+      </c>
+      <c r="D140" s="1">
         <v>11</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E140" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="G140">
+      <c r="G140" s="2">
         <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
+      <c r="A141" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="1">
         <v>140</v>
       </c>
-      <c r="C141">
-        <v>1</v>
-      </c>
-      <c r="D141">
+      <c r="C141" s="1">
+        <v>1</v>
+      </c>
+      <c r="D141" s="1">
         <v>12</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E141" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="G141">
+      <c r="G141" s="2">
         <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
+      <c r="A142" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="1">
         <v>141</v>
       </c>
-      <c r="C142">
-        <v>1</v>
-      </c>
-      <c r="D142">
+      <c r="C142" s="1">
+        <v>1</v>
+      </c>
+      <c r="D142" s="1">
         <v>13</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E142" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
+      <c r="A143" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="1">
         <v>142</v>
       </c>
-      <c r="C143">
-        <v>1</v>
-      </c>
-      <c r="D143">
+      <c r="C143" s="1">
+        <v>1</v>
+      </c>
+      <c r="D143" s="1">
         <v>14</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E143" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F143" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="G143">
+      <c r="G143" s="2">
         <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
+      <c r="A144" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="1">
         <v>143</v>
       </c>
-      <c r="C144">
-        <v>1</v>
-      </c>
-      <c r="D144">
+      <c r="C144" s="1">
+        <v>1</v>
+      </c>
+      <c r="D144" s="1">
         <v>15</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E144" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F144" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="G144">
+      <c r="G144" s="2">
         <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
+      <c r="A145" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="1">
         <v>144</v>
       </c>
-      <c r="C145">
-        <v>1</v>
-      </c>
-      <c r="D145">
+      <c r="C145" s="1">
+        <v>1</v>
+      </c>
+      <c r="D145" s="1">
         <v>16</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E145" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F145" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="G145">
+      <c r="G145" s="2">
         <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
+      <c r="A146" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="1">
         <v>145</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="1">
         <v>2</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="1">
         <v>16</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E146" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F146" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="G146">
+      <c r="G146" s="2">
         <v>152</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
+      <c r="A147" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="1">
         <v>146</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="1">
         <v>2</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="1">
         <v>15</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E147" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F147" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="G147">
+      <c r="G147" s="2">
         <v>151</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
+      <c r="A148" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="1">
         <v>147</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="1">
         <v>2</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="1">
         <v>14</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E148" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F148" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="G148">
+      <c r="G148" s="2">
         <v>150</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
+      <c r="A149" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="1">
         <v>148</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="1">
         <v>2</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="1">
         <v>13</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E149" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F149" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="G149">
+      <c r="G149" s="2">
         <v>149</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
+      <c r="A150" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="1">
         <v>149</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="1">
         <v>2</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="1">
         <v>12</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E150" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F150" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="G150">
+      <c r="G150" s="2">
         <v>148</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
+      <c r="A151" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="1">
         <v>150</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="1">
         <v>2</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="1">
         <v>11</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E151" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F151" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="G151">
+      <c r="G151" s="2">
         <v>147</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
+      <c r="A152" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="1">
         <v>151</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="1">
         <v>2</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="1">
         <v>10</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E152" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F152" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="G152">
+      <c r="G152" s="2">
         <v>146</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
+      <c r="A153" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="1">
         <v>152</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="1">
         <v>2</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="1">
         <v>9</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E153" s="1" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
+      <c r="A154" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="1">
         <v>153</v>
       </c>
-      <c r="C154">
-        <v>3</v>
-      </c>
-      <c r="D154">
+      <c r="C154" s="1">
+        <v>3</v>
+      </c>
+      <c r="D154" s="1">
         <v>9</v>
       </c>
-      <c r="E154" t="s">
+      <c r="E154" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
+      <c r="A155" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="1">
         <v>154</v>
       </c>
-      <c r="C155">
-        <v>3</v>
-      </c>
-      <c r="D155">
+      <c r="C155" s="1">
+        <v>3</v>
+      </c>
+      <c r="D155" s="1">
         <v>10</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E155" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F155" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="G155">
+      <c r="G155" s="2">
         <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
+      <c r="A156" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="1">
         <v>155</v>
       </c>
-      <c r="C156">
-        <v>3</v>
-      </c>
-      <c r="D156">
+      <c r="C156" s="1">
+        <v>3</v>
+      </c>
+      <c r="D156" s="1">
         <v>11</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E156" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F156" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="G156">
+      <c r="G156" s="2">
         <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
+      <c r="A157" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="1">
         <v>156</v>
       </c>
-      <c r="C157">
-        <v>3</v>
-      </c>
-      <c r="D157">
+      <c r="C157" s="1">
+        <v>3</v>
+      </c>
+      <c r="D157" s="1">
         <v>12</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E157" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F157" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="G157">
+      <c r="G157" s="2">
         <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
+      <c r="A158" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="1">
         <v>157</v>
       </c>
-      <c r="C158">
-        <v>3</v>
-      </c>
-      <c r="D158">
+      <c r="C158" s="1">
+        <v>3</v>
+      </c>
+      <c r="D158" s="1">
         <v>13</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E158" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F158" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="G158">
+      <c r="G158" s="2">
         <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
+      <c r="A159" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="1">
         <v>158</v>
       </c>
-      <c r="C159">
-        <v>3</v>
-      </c>
-      <c r="D159">
+      <c r="C159" s="1">
+        <v>3</v>
+      </c>
+      <c r="D159" s="1">
         <v>14</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E159" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F159" t="s">
+      <c r="F159" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="G159">
+      <c r="G159" s="2">
         <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
+      <c r="A160" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="1">
         <v>159</v>
       </c>
-      <c r="C160">
-        <v>3</v>
-      </c>
-      <c r="D160">
+      <c r="C160" s="1">
+        <v>3</v>
+      </c>
+      <c r="D160" s="1">
         <v>15</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E160" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F160" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="G160">
+      <c r="G160" s="2">
         <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
+      <c r="A161" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="1">
         <v>160</v>
       </c>
-      <c r="C161">
-        <v>3</v>
-      </c>
-      <c r="D161">
+      <c r="C161" s="1">
+        <v>3</v>
+      </c>
+      <c r="D161" s="1">
         <v>16</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E161" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F161" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="G161">
+      <c r="G161" s="2">
         <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
+      <c r="A162" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="1">
         <v>161</v>
       </c>
-      <c r="C162">
-        <v>4</v>
-      </c>
-      <c r="D162">
+      <c r="C162" s="1">
+        <v>4</v>
+      </c>
+      <c r="D162" s="1">
         <v>16</v>
       </c>
-      <c r="E162" t="s">
+      <c r="E162" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F162" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="G162">
+      <c r="G162" s="2">
         <v>168</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
+      <c r="A163" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="1">
         <v>162</v>
       </c>
-      <c r="C163">
-        <v>4</v>
-      </c>
-      <c r="D163">
+      <c r="C163" s="1">
+        <v>4</v>
+      </c>
+      <c r="D163" s="1">
         <v>15</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E163" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F163" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="G163">
+      <c r="G163" s="2">
         <v>167</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
+      <c r="A164" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="1">
         <v>163</v>
       </c>
-      <c r="C164">
-        <v>4</v>
-      </c>
-      <c r="D164">
+      <c r="C164" s="1">
+        <v>4</v>
+      </c>
+      <c r="D164" s="1">
         <v>14</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E164" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F164" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="G164">
+      <c r="G164" s="2">
         <v>166</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
+      <c r="A165" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="1">
         <v>164</v>
       </c>
-      <c r="C165">
-        <v>4</v>
-      </c>
-      <c r="D165">
+      <c r="C165" s="1">
+        <v>4</v>
+      </c>
+      <c r="D165" s="1">
         <v>13</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E165" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F165" t="s">
+      <c r="F165" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="G165">
+      <c r="G165" s="2">
         <v>165</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
+      <c r="A166" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="1">
         <v>165</v>
       </c>
-      <c r="C166">
-        <v>4</v>
-      </c>
-      <c r="D166">
+      <c r="C166" s="1">
+        <v>4</v>
+      </c>
+      <c r="D166" s="1">
         <v>12</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E166" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F166" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="G166">
+      <c r="G166" s="2">
         <v>164</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
+      <c r="A167" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="1">
         <v>166</v>
       </c>
-      <c r="C167">
-        <v>4</v>
-      </c>
-      <c r="D167">
+      <c r="C167" s="1">
+        <v>4</v>
+      </c>
+      <c r="D167" s="1">
         <v>11</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E167" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F167" t="s">
+      <c r="F167" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G167">
+      <c r="G167" s="2">
         <v>163</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
+      <c r="A168" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="1">
         <v>167</v>
       </c>
-      <c r="C168">
-        <v>4</v>
-      </c>
-      <c r="D168">
+      <c r="C168" s="1">
+        <v>4</v>
+      </c>
+      <c r="D168" s="1">
         <v>10</v>
       </c>
-      <c r="E168" t="s">
+      <c r="E168" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F168" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="G168">
+      <c r="G168" s="2">
         <v>162</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
+      <c r="A169" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="1">
         <v>168</v>
       </c>
-      <c r="C169">
-        <v>4</v>
-      </c>
-      <c r="D169">
+      <c r="C169" s="1">
+        <v>4</v>
+      </c>
+      <c r="D169" s="1">
         <v>9</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E169" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F169" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="G169">
+      <c r="G169" s="2">
         <v>161</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
+      <c r="A170" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="1">
         <v>169</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="1">
         <v>5</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="1">
         <v>9</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E170" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F170" t="s">
+      <c r="F170" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="G170">
+      <c r="G170" s="2">
         <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
+      <c r="A171" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="1">
         <v>170</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="1">
         <v>5</v>
       </c>
-      <c r="D171">
+      <c r="D171" s="1">
         <v>10</v>
       </c>
-      <c r="E171" t="s">
+      <c r="E171" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F171" t="s">
+      <c r="F171" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="G171">
+      <c r="G171" s="2">
         <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
+      <c r="A172" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="1">
         <v>171</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="1">
         <v>5</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="1">
         <v>11</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E172" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F172" t="s">
+      <c r="F172" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="G172">
+      <c r="G172" s="2">
         <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
+      <c r="A173" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="1">
         <v>172</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="1">
         <v>5</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="1">
         <v>12</v>
       </c>
-      <c r="E173" t="s">
+      <c r="E173" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F173" t="s">
+      <c r="F173" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="G173">
+      <c r="G173" s="2">
         <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
+      <c r="A174" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="1">
         <v>173</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="1">
         <v>5</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="1">
         <v>13</v>
       </c>
-      <c r="E174" t="s">
+      <c r="E174" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F174" t="s">
+      <c r="F174" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="G174">
+      <c r="G174" s="2">
         <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
+      <c r="A175" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="1">
         <v>174</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="1">
         <v>5</v>
       </c>
-      <c r="D175">
+      <c r="D175" s="1">
         <v>14</v>
       </c>
-      <c r="E175" t="s">
+      <c r="E175" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F175" t="s">
+      <c r="F175" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="G175">
+      <c r="G175" s="2">
         <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
+      <c r="A176" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="1">
         <v>175</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="1">
         <v>5</v>
       </c>
-      <c r="D176">
+      <c r="D176" s="1">
         <v>15</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E176" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F176" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G176">
+      <c r="G176" s="2">
         <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
+      <c r="A177" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="1">
         <v>176</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="1">
         <v>5</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="1">
         <v>16</v>
       </c>
-      <c r="E177" t="s">
+      <c r="E177" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F177" t="s">
+      <c r="F177" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="G177">
+      <c r="G177" s="2">
         <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
+      <c r="A178" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="1">
         <v>177</v>
       </c>
-      <c r="C178">
-        <v>6</v>
-      </c>
-      <c r="D178">
+      <c r="C178" s="1">
+        <v>6</v>
+      </c>
+      <c r="D178" s="1">
         <v>16</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E178" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F178" t="s">
+      <c r="F178" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="G178">
+      <c r="G178" s="2">
         <v>184</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
+      <c r="A179" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="1">
         <v>178</v>
       </c>
-      <c r="C179">
-        <v>6</v>
-      </c>
-      <c r="D179">
+      <c r="C179" s="1">
+        <v>6</v>
+      </c>
+      <c r="D179" s="1">
         <v>15</v>
       </c>
-      <c r="E179" t="s">
+      <c r="E179" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F179" t="s">
+      <c r="F179" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="G179">
+      <c r="G179" s="2">
         <v>183</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
+      <c r="A180" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="1">
         <v>179</v>
       </c>
-      <c r="C180">
-        <v>6</v>
-      </c>
-      <c r="D180">
+      <c r="C180" s="1">
+        <v>6</v>
+      </c>
+      <c r="D180" s="1">
         <v>14</v>
       </c>
-      <c r="E180" t="s">
+      <c r="E180" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F180" t="s">
+      <c r="F180" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="G180">
+      <c r="G180" s="2">
         <v>182</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
+      <c r="A181" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="1">
         <v>180</v>
       </c>
-      <c r="C181">
-        <v>6</v>
-      </c>
-      <c r="D181">
+      <c r="C181" s="1">
+        <v>6</v>
+      </c>
+      <c r="D181" s="1">
         <v>13</v>
       </c>
-      <c r="E181" t="s">
+      <c r="E181" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F181" t="s">
+      <c r="F181" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="G181">
+      <c r="G181" s="2">
         <v>181</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
+      <c r="A182" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="1">
         <v>181</v>
       </c>
-      <c r="C182">
-        <v>6</v>
-      </c>
-      <c r="D182">
+      <c r="C182" s="1">
+        <v>6</v>
+      </c>
+      <c r="D182" s="1">
         <v>12</v>
       </c>
-      <c r="E182" t="s">
+      <c r="E182" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F182" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="G182">
+      <c r="G182" s="2">
         <v>180</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
+      <c r="A183" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="1">
         <v>182</v>
       </c>
-      <c r="C183">
-        <v>6</v>
-      </c>
-      <c r="D183">
+      <c r="C183" s="1">
+        <v>6</v>
+      </c>
+      <c r="D183" s="1">
         <v>11</v>
       </c>
-      <c r="E183" t="s">
+      <c r="E183" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F183" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="G183">
+      <c r="G183" s="2">
         <v>179</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
+      <c r="A184" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="1">
         <v>183</v>
       </c>
-      <c r="C184">
-        <v>6</v>
-      </c>
-      <c r="D184">
+      <c r="C184" s="1">
+        <v>6</v>
+      </c>
+      <c r="D184" s="1">
         <v>10</v>
       </c>
-      <c r="E184" t="s">
+      <c r="E184" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F184" t="s">
+      <c r="F184" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="G184">
+      <c r="G184" s="2">
         <v>178</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
+      <c r="A185" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="1">
         <v>184</v>
       </c>
-      <c r="C185">
-        <v>6</v>
-      </c>
-      <c r="D185">
+      <c r="C185" s="1">
+        <v>6</v>
+      </c>
+      <c r="D185" s="1">
         <v>9</v>
       </c>
-      <c r="E185" t="s">
+      <c r="E185" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F185" t="s">
+      <c r="F185" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="G185">
+      <c r="G185" s="2">
         <v>177</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
+      <c r="A186" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="1">
         <v>185</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="1">
         <v>7</v>
       </c>
-      <c r="D186">
+      <c r="D186" s="1">
         <v>9</v>
       </c>
-      <c r="E186" t="s">
+      <c r="E186" s="1" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
+      <c r="A187" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="1">
         <v>186</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="1">
         <v>7</v>
       </c>
-      <c r="D187">
+      <c r="D187" s="1">
         <v>10</v>
       </c>
-      <c r="E187" t="s">
+      <c r="E187" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F187" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="G187">
+      <c r="G187" s="2">
         <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
+      <c r="A188" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="1">
         <v>187</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="1">
         <v>7</v>
       </c>
-      <c r="D188">
+      <c r="D188" s="1">
         <v>11</v>
       </c>
-      <c r="E188" t="s">
+      <c r="E188" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F188" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="G188">
+      <c r="G188" s="2">
         <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
+      <c r="A189" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="1">
         <v>188</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="1">
         <v>7</v>
       </c>
-      <c r="D189">
+      <c r="D189" s="1">
         <v>12</v>
       </c>
-      <c r="E189" t="s">
+      <c r="E189" s="1" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
+      <c r="A190" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="1">
         <v>189</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="1">
         <v>7</v>
       </c>
-      <c r="D190">
+      <c r="D190" s="1">
         <v>13</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E190" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F190" t="s">
+      <c r="F190" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="G190">
+      <c r="G190" s="2">
         <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
+      <c r="A191" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="1">
         <v>190</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="1">
         <v>7</v>
       </c>
-      <c r="D191">
+      <c r="D191" s="1">
         <v>14</v>
       </c>
-      <c r="E191" t="s">
+      <c r="E191" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F191" t="s">
+      <c r="F191" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="G191">
+      <c r="G191" s="2">
         <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
+      <c r="A192" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="1">
         <v>191</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="1">
         <v>7</v>
       </c>
-      <c r="D192">
+      <c r="D192" s="1">
         <v>15</v>
       </c>
-      <c r="E192" t="s">
+      <c r="E192" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F192" t="s">
+      <c r="F192" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="G192">
+      <c r="G192" s="2">
         <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
+      <c r="A193" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="1">
         <v>192</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="1">
         <v>7</v>
       </c>
-      <c r="D193">
+      <c r="D193" s="1">
         <v>16</v>
       </c>
-      <c r="E193" t="s">
+      <c r="E193" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F193" t="s">
+      <c r="F193" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="G193">
+      <c r="G193" s="2">
         <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
+      <c r="A194" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="1">
         <v>193</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="1">
         <v>8</v>
       </c>
-      <c r="D194">
+      <c r="D194" s="1">
         <v>16</v>
       </c>
-      <c r="E194" t="s">
+      <c r="E194" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F194" t="s">
+      <c r="F194" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="G194">
+      <c r="G194" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
+      <c r="A195" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="1">
         <v>194</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="1">
         <v>8</v>
       </c>
-      <c r="D195">
+      <c r="D195" s="1">
         <v>15</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E195" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F195" t="s">
+      <c r="F195" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="G195">
+      <c r="G195" s="2">
         <v>199</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
+      <c r="A196" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="1">
         <v>195</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="1">
         <v>8</v>
       </c>
-      <c r="D196">
+      <c r="D196" s="1">
         <v>14</v>
       </c>
-      <c r="E196" t="s">
+      <c r="E196" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="F196" t="s">
+      <c r="F196" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="G196">
+      <c r="G196" s="2">
         <v>198</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
+      <c r="A197" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="1">
         <v>196</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="1">
         <v>8</v>
       </c>
-      <c r="D197">
+      <c r="D197" s="1">
         <v>13</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E197" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F197" t="s">
+      <c r="F197" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="G197">
+      <c r="G197" s="2">
         <v>197</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
+      <c r="A198" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="1">
         <v>197</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="1">
         <v>8</v>
       </c>
-      <c r="D198">
+      <c r="D198" s="1">
         <v>12</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E198" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F198" t="s">
+      <c r="F198" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="G198">
+      <c r="G198" s="2">
         <v>196</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
+      <c r="A199" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="1">
         <v>198</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="1">
         <v>8</v>
       </c>
-      <c r="D199">
+      <c r="D199" s="1">
         <v>11</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E199" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F199" t="s">
+      <c r="F199" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="G199">
+      <c r="G199" s="2">
         <v>195</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
+      <c r="A200" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="1">
         <v>199</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="1">
         <v>8</v>
       </c>
-      <c r="D200">
+      <c r="D200" s="1">
         <v>10</v>
       </c>
-      <c r="E200" t="s">
+      <c r="E200" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F200" t="s">
+      <c r="F200" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="G200">
+      <c r="G200" s="2">
         <v>194</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
+      <c r="A201" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="1">
         <v>200</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="1">
         <v>8</v>
       </c>
-      <c r="D201">
+      <c r="D201" s="1">
         <v>9</v>
       </c>
-      <c r="E201" t="s">
+      <c r="E201" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F201" t="s">
+      <c r="F201" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="G201">
+      <c r="G201" s="2">
         <v>193</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
+      <c r="A202" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="1">
         <v>201</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="1">
         <v>9</v>
       </c>
-      <c r="D202">
+      <c r="D202" s="1">
         <v>9</v>
       </c>
-      <c r="E202" t="s">
+      <c r="E202" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F202" t="s">
+      <c r="F202" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="G202">
+      <c r="G202" s="2">
         <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
+      <c r="A203" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="1">
         <v>202</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="1">
         <v>9</v>
       </c>
-      <c r="D203">
+      <c r="D203" s="1">
         <v>10</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E203" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="F203" t="s">
+      <c r="F203" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="G203">
+      <c r="G203" s="2">
         <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
+      <c r="A204" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="1">
         <v>203</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="1">
         <v>9</v>
       </c>
-      <c r="D204">
+      <c r="D204" s="1">
         <v>11</v>
       </c>
-      <c r="E204" t="s">
+      <c r="E204" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F204" t="s">
+      <c r="F204" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="G204">
+      <c r="G204" s="2">
         <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
+      <c r="A205" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="1">
         <v>204</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="1">
         <v>9</v>
       </c>
-      <c r="D205">
+      <c r="D205" s="1">
         <v>12</v>
       </c>
-      <c r="E205" t="s">
+      <c r="E205" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="F205" t="s">
+      <c r="F205" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="G205">
+      <c r="G205" s="2">
         <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
+      <c r="A206" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="1">
         <v>205</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="1">
         <v>9</v>
       </c>
-      <c r="D206">
+      <c r="D206" s="1">
         <v>13</v>
       </c>
-      <c r="E206" t="s">
+      <c r="E206" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F206" t="s">
+      <c r="F206" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="G206">
+      <c r="G206" s="2">
         <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
+      <c r="A207" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="1">
         <v>206</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="1">
         <v>9</v>
       </c>
-      <c r="D207">
+      <c r="D207" s="1">
         <v>14</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E207" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F207" t="s">
+      <c r="F207" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="G207">
+      <c r="G207" s="2">
         <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
+      <c r="A208" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="1">
         <v>207</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="1">
         <v>9</v>
       </c>
-      <c r="D208">
+      <c r="D208" s="1">
         <v>15</v>
       </c>
-      <c r="E208" t="s">
+      <c r="E208" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F208" t="s">
+      <c r="F208" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="G208">
+      <c r="G208" s="2">
         <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A209" t="s">
+      <c r="A209" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="1">
         <v>208</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="1">
         <v>9</v>
       </c>
-      <c r="D209">
+      <c r="D209" s="1">
         <v>16</v>
       </c>
-      <c r="E209" t="s">
+      <c r="E209" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F209" t="s">
+      <c r="F209" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="G209">
+      <c r="G209" s="2">
         <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A210" t="s">
+      <c r="A210" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="1">
         <v>209</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="1">
         <v>10</v>
       </c>
-      <c r="D210">
+      <c r="D210" s="1">
         <v>16</v>
       </c>
-      <c r="E210" t="s">
+      <c r="E210" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F210" t="s">
+      <c r="F210" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="G210">
+      <c r="G210" s="2">
         <v>216</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A211" t="s">
+      <c r="A211" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="1">
         <v>210</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="1">
         <v>10</v>
       </c>
-      <c r="D211">
+      <c r="D211" s="1">
         <v>15</v>
       </c>
-      <c r="E211" t="s">
+      <c r="E211" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F211" t="s">
+      <c r="F211" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="G211">
+      <c r="G211" s="2">
         <v>215</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A212" t="s">
+      <c r="A212" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="1">
         <v>211</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="1">
         <v>10</v>
       </c>
-      <c r="D212">
+      <c r="D212" s="1">
         <v>14</v>
       </c>
-      <c r="E212" t="s">
+      <c r="E212" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F212" t="s">
+      <c r="F212" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="G212">
+      <c r="G212" s="2">
         <v>214</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A213" t="s">
+      <c r="A213" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="1">
         <v>212</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="1">
         <v>10</v>
       </c>
-      <c r="D213">
+      <c r="D213" s="1">
         <v>13</v>
       </c>
-      <c r="E213" t="s">
+      <c r="E213" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F213" t="s">
+      <c r="F213" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="G213">
+      <c r="G213" s="2">
         <v>213</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A214" t="s">
+      <c r="A214" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="1">
         <v>213</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="1">
         <v>10</v>
       </c>
-      <c r="D214">
+      <c r="D214" s="1">
         <v>12</v>
       </c>
-      <c r="E214" t="s">
+      <c r="E214" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F214" t="s">
+      <c r="F214" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="G214">
+      <c r="G214" s="2">
         <v>212</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A215" t="s">
+      <c r="A215" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="1">
         <v>214</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="1">
         <v>10</v>
       </c>
-      <c r="D215">
+      <c r="D215" s="1">
         <v>11</v>
       </c>
-      <c r="E215" t="s">
+      <c r="E215" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F215" t="s">
+      <c r="F215" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="G215">
+      <c r="G215" s="2">
         <v>211</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A216" t="s">
+      <c r="A216" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="1">
         <v>215</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="1">
         <v>10</v>
       </c>
-      <c r="D216">
+      <c r="D216" s="1">
         <v>10</v>
       </c>
-      <c r="E216" t="s">
+      <c r="E216" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="F216" t="s">
+      <c r="F216" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="G216">
+      <c r="G216" s="2">
         <v>210</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A217" t="s">
+      <c r="A217" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="1">
         <v>216</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="1">
         <v>10</v>
       </c>
-      <c r="D217">
+      <c r="D217" s="1">
         <v>9</v>
       </c>
-      <c r="E217" t="s">
+      <c r="E217" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F217" t="s">
+      <c r="F217" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="G217">
+      <c r="G217" s="2">
         <v>209</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A218" t="s">
+      <c r="A218" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="1">
         <v>217</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="1">
         <v>11</v>
       </c>
-      <c r="D218">
+      <c r="D218" s="1">
         <v>9</v>
       </c>
-      <c r="E218" t="s">
+      <c r="E218" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F218" t="s">
+      <c r="F218" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="G218">
+      <c r="G218" s="2">
         <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A219" t="s">
+      <c r="A219" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="1">
         <v>218</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="1">
         <v>11</v>
       </c>
-      <c r="D219">
+      <c r="D219" s="1">
         <v>10</v>
       </c>
-      <c r="E219" t="s">
+      <c r="E219" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F219" t="s">
+      <c r="F219" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="G219">
+      <c r="G219" s="2">
         <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A220" t="s">
+      <c r="A220" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="1">
         <v>219</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="1">
         <v>11</v>
       </c>
-      <c r="D220">
+      <c r="D220" s="1">
         <v>11</v>
       </c>
-      <c r="E220" t="s">
+      <c r="E220" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F220" t="s">
+      <c r="F220" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="G220">
+      <c r="G220" s="2">
         <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A221" t="s">
+      <c r="A221" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="1">
         <v>220</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="1">
         <v>11</v>
       </c>
-      <c r="D221">
+      <c r="D221" s="1">
         <v>12</v>
       </c>
-      <c r="E221" t="s">
+      <c r="E221" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F221" t="s">
+      <c r="F221" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="G221">
+      <c r="G221" s="2">
         <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A222" t="s">
+      <c r="A222" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="1">
         <v>221</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="1">
         <v>11</v>
       </c>
-      <c r="D222">
+      <c r="D222" s="1">
         <v>13</v>
       </c>
-      <c r="E222" t="s">
+      <c r="E222" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F222" t="s">
+      <c r="F222" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="G222">
+      <c r="G222" s="2">
         <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A223" t="s">
+      <c r="A223" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="1">
         <v>222</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="1">
         <v>11</v>
       </c>
-      <c r="D223">
+      <c r="D223" s="1">
         <v>14</v>
       </c>
-      <c r="E223" t="s">
+      <c r="E223" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F223" t="s">
+      <c r="F223" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="G223">
+      <c r="G223" s="2">
         <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A224" t="s">
+      <c r="A224" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="1">
         <v>223</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="1">
         <v>11</v>
       </c>
-      <c r="D224">
+      <c r="D224" s="1">
         <v>15</v>
       </c>
-      <c r="E224" t="s">
+      <c r="E224" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F224" t="s">
+      <c r="F224" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="G224">
+      <c r="G224" s="2">
         <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A225" t="s">
+      <c r="A225" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="1">
         <v>224</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="1">
         <v>11</v>
       </c>
-      <c r="D225">
+      <c r="D225" s="1">
         <v>16</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E225" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F225" t="s">
+      <c r="F225" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="G225">
+      <c r="G225" s="2">
         <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A226" t="s">
+      <c r="A226" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="1">
         <v>225</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="1">
         <v>12</v>
       </c>
-      <c r="D226">
+      <c r="D226" s="1">
         <v>16</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E226" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F226" t="s">
+      <c r="F226" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="G226">
+      <c r="G226" s="2">
         <v>232</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A227" t="s">
+      <c r="A227" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="1">
         <v>226</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="1">
         <v>12</v>
       </c>
-      <c r="D227">
+      <c r="D227" s="1">
         <v>15</v>
       </c>
-      <c r="E227" t="s">
+      <c r="E227" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F227" t="s">
+      <c r="F227" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="G227">
+      <c r="G227" s="2">
         <v>231</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A228" t="s">
+      <c r="A228" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="1">
         <v>227</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="1">
         <v>12</v>
       </c>
-      <c r="D228">
+      <c r="D228" s="1">
         <v>14</v>
       </c>
-      <c r="E228" t="s">
+      <c r="E228" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F228" t="s">
+      <c r="F228" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="G228">
+      <c r="G228" s="2">
         <v>230</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A229" t="s">
+      <c r="A229" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="1">
         <v>228</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="1">
         <v>12</v>
       </c>
-      <c r="D229">
+      <c r="D229" s="1">
         <v>13</v>
       </c>
-      <c r="E229" t="s">
+      <c r="E229" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="F229" t="s">
+      <c r="F229" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="G229">
+      <c r="G229" s="2">
         <v>229</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A230" t="s">
+      <c r="A230" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="1">
         <v>229</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="1">
         <v>12</v>
       </c>
-      <c r="D230">
+      <c r="D230" s="1">
         <v>12</v>
       </c>
-      <c r="E230" t="s">
+      <c r="E230" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F230" t="s">
+      <c r="F230" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="G230">
+      <c r="G230" s="2">
         <v>228</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A231" t="s">
+      <c r="A231" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="1">
         <v>230</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="1">
         <v>12</v>
       </c>
-      <c r="D231">
+      <c r="D231" s="1">
         <v>11</v>
       </c>
-      <c r="E231" t="s">
+      <c r="E231" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F231" t="s">
+      <c r="F231" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="G231">
+      <c r="G231" s="2">
         <v>227</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A232" t="s">
+      <c r="A232" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="1">
         <v>231</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="1">
         <v>12</v>
       </c>
-      <c r="D232">
+      <c r="D232" s="1">
         <v>10</v>
       </c>
-      <c r="E232" t="s">
+      <c r="E232" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F232" t="s">
+      <c r="F232" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="G232">
+      <c r="G232" s="2">
         <v>226</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A233" t="s">
+      <c r="A233" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="1">
         <v>232</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="1">
         <v>12</v>
       </c>
-      <c r="D233">
+      <c r="D233" s="1">
         <v>9</v>
       </c>
-      <c r="E233" t="s">
+      <c r="E233" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F233" t="s">
+      <c r="F233" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="G233">
+      <c r="G233" s="2">
         <v>225</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A234" t="s">
+      <c r="A234" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="1">
         <v>233</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="1">
         <v>13</v>
       </c>
-      <c r="D234">
+      <c r="D234" s="1">
         <v>9</v>
       </c>
-      <c r="E234" t="s">
+      <c r="E234" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="F234" t="s">
+      <c r="F234" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="G234">
+      <c r="G234" s="2">
         <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A235" t="s">
+      <c r="A235" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="1">
         <v>234</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="1">
         <v>13</v>
       </c>
-      <c r="D235">
+      <c r="D235" s="1">
         <v>10</v>
       </c>
-      <c r="E235" t="s">
+      <c r="E235" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F235" t="s">
+      <c r="F235" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="G235">
+      <c r="G235" s="2">
         <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A236" t="s">
+      <c r="A236" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="1">
         <v>235</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="1">
         <v>13</v>
       </c>
-      <c r="D236">
+      <c r="D236" s="1">
         <v>11</v>
       </c>
-      <c r="E236" t="s">
+      <c r="E236" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F236" t="s">
+      <c r="F236" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="G236">
+      <c r="G236" s="2">
         <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A237" t="s">
+      <c r="A237" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="1">
         <v>236</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="1">
         <v>13</v>
       </c>
-      <c r="D237">
+      <c r="D237" s="1">
         <v>12</v>
       </c>
-      <c r="E237" t="s">
+      <c r="E237" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="F237" t="s">
+      <c r="F237" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="G237">
+      <c r="G237" s="2">
         <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A238" t="s">
+      <c r="A238" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="1">
         <v>237</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="1">
         <v>13</v>
       </c>
-      <c r="D238">
+      <c r="D238" s="1">
         <v>13</v>
       </c>
-      <c r="E238" t="s">
+      <c r="E238" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F238" t="s">
+      <c r="F238" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="G238">
+      <c r="G238" s="2">
         <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A239" t="s">
+      <c r="A239" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="1">
         <v>238</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="1">
         <v>13</v>
       </c>
-      <c r="D239">
+      <c r="D239" s="1">
         <v>14</v>
       </c>
-      <c r="E239" t="s">
+      <c r="E239" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F239" t="s">
+      <c r="F239" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="G239">
+      <c r="G239" s="2">
         <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A240" t="s">
+      <c r="A240" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="1">
         <v>239</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="1">
         <v>13</v>
       </c>
-      <c r="D240">
+      <c r="D240" s="1">
         <v>15</v>
       </c>
-      <c r="E240" t="s">
+      <c r="E240" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F240" t="s">
+      <c r="F240" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="G240">
+      <c r="G240" s="2">
         <v>239</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A241" t="s">
+      <c r="A241" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="1">
         <v>240</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="1">
         <v>13</v>
       </c>
-      <c r="D241">
+      <c r="D241" s="1">
         <v>16</v>
       </c>
-      <c r="E241" t="s">
+      <c r="E241" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F241" t="s">
+      <c r="F241" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="G241">
+      <c r="G241" s="2">
         <v>240</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A242" t="s">
+      <c r="A242" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="1">
         <v>241</v>
       </c>
-      <c r="C242">
+      <c r="C242" s="1">
         <v>14</v>
       </c>
-      <c r="D242">
+      <c r="D242" s="1">
         <v>16</v>
       </c>
-      <c r="E242" t="s">
+      <c r="E242" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F242" t="s">
+      <c r="F242" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="G242">
+      <c r="G242" s="2">
         <v>248</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A243" t="s">
+      <c r="A243" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="1">
         <v>242</v>
       </c>
-      <c r="C243">
+      <c r="C243" s="1">
         <v>14</v>
       </c>
-      <c r="D243">
+      <c r="D243" s="1">
         <v>15</v>
       </c>
-      <c r="E243" t="s">
+      <c r="E243" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F243" t="s">
+      <c r="F243" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="G243">
+      <c r="G243" s="2">
         <v>247</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A244" t="s">
+      <c r="A244" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="1">
         <v>243</v>
       </c>
-      <c r="C244">
+      <c r="C244" s="1">
         <v>14</v>
       </c>
-      <c r="D244">
+      <c r="D244" s="1">
         <v>14</v>
       </c>
-      <c r="E244" t="s">
+      <c r="E244" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F244" t="s">
+      <c r="F244" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="G244">
+      <c r="G244" s="2">
         <v>246</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A245" t="s">
+      <c r="A245" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="1">
         <v>244</v>
       </c>
-      <c r="C245">
+      <c r="C245" s="1">
         <v>14</v>
       </c>
-      <c r="D245">
+      <c r="D245" s="1">
         <v>13</v>
       </c>
-      <c r="E245" t="s">
+      <c r="E245" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F245" t="s">
+      <c r="F245" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="G245">
+      <c r="G245" s="2">
         <v>245</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A246" t="s">
+      <c r="A246" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="1">
         <v>245</v>
       </c>
-      <c r="C246">
+      <c r="C246" s="1">
         <v>14</v>
       </c>
-      <c r="D246">
+      <c r="D246" s="1">
         <v>12</v>
       </c>
-      <c r="E246" t="s">
+      <c r="E246" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F246" t="s">
+      <c r="F246" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="G246">
+      <c r="G246" s="2">
         <v>244</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A247" t="s">
+      <c r="A247" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="1">
         <v>246</v>
       </c>
-      <c r="C247">
+      <c r="C247" s="1">
         <v>14</v>
       </c>
-      <c r="D247">
+      <c r="D247" s="1">
         <v>11</v>
       </c>
-      <c r="E247" t="s">
+      <c r="E247" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F247" t="s">
+      <c r="F247" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="G247">
+      <c r="G247" s="2">
         <v>243</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A248" t="s">
+      <c r="A248" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="1">
         <v>247</v>
       </c>
-      <c r="C248">
+      <c r="C248" s="1">
         <v>14</v>
       </c>
-      <c r="D248">
+      <c r="D248" s="1">
         <v>10</v>
       </c>
-      <c r="E248" t="s">
+      <c r="E248" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F248" t="s">
+      <c r="F248" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="G248">
+      <c r="G248" s="2">
         <v>242</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A249" t="s">
+      <c r="A249" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="1">
         <v>248</v>
       </c>
-      <c r="C249">
+      <c r="C249" s="1">
         <v>14</v>
       </c>
-      <c r="D249">
+      <c r="D249" s="1">
         <v>9</v>
       </c>
-      <c r="E249" t="s">
+      <c r="E249" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F249" t="s">
+      <c r="F249" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="G249">
+      <c r="G249" s="2">
         <v>241</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A250" t="s">
+      <c r="A250" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="1">
         <v>249</v>
       </c>
-      <c r="C250">
+      <c r="C250" s="1">
         <v>15</v>
       </c>
-      <c r="D250">
+      <c r="D250" s="1">
         <v>9</v>
       </c>
-      <c r="E250" t="s">
+      <c r="E250" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F250" t="s">
+      <c r="F250" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="G250">
+      <c r="G250" s="2">
         <v>249</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A251" t="s">
+      <c r="A251" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="1">
         <v>250</v>
       </c>
-      <c r="C251">
+      <c r="C251" s="1">
         <v>15</v>
       </c>
-      <c r="D251">
+      <c r="D251" s="1">
         <v>10</v>
       </c>
-      <c r="E251" t="s">
+      <c r="E251" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F251" t="s">
+      <c r="F251" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="G251">
+      <c r="G251" s="2">
         <v>250</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A252" t="s">
+      <c r="A252" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="1">
         <v>251</v>
       </c>
-      <c r="C252">
+      <c r="C252" s="1">
         <v>15</v>
       </c>
-      <c r="D252">
+      <c r="D252" s="1">
         <v>11</v>
       </c>
-      <c r="E252" t="s">
+      <c r="E252" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F252" t="s">
+      <c r="F252" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="G252">
+      <c r="G252" s="2">
         <v>251</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A253" t="s">
+      <c r="A253" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B253">
+      <c r="B253" s="1">
         <v>252</v>
       </c>
-      <c r="C253">
+      <c r="C253" s="1">
         <v>15</v>
       </c>
-      <c r="D253">
+      <c r="D253" s="1">
         <v>12</v>
       </c>
-      <c r="E253" t="s">
+      <c r="E253" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F253" t="s">
+      <c r="F253" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="G253">
+      <c r="G253" s="2">
         <v>252</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A254" t="s">
+      <c r="A254" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="1">
         <v>253</v>
       </c>
-      <c r="C254">
+      <c r="C254" s="1">
         <v>15</v>
       </c>
-      <c r="D254">
+      <c r="D254" s="1">
         <v>13</v>
       </c>
-      <c r="E254" t="s">
+      <c r="E254" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F254" t="s">
+      <c r="F254" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="G254">
+      <c r="G254" s="2">
         <v>253</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A255" t="s">
+      <c r="A255" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="1">
         <v>254</v>
       </c>
-      <c r="C255">
+      <c r="C255" s="1">
         <v>15</v>
       </c>
-      <c r="D255">
+      <c r="D255" s="1">
         <v>14</v>
       </c>
-      <c r="E255" t="s">
+      <c r="E255" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="F255" t="s">
+      <c r="F255" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="G255">
+      <c r="G255" s="2">
         <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A256" t="s">
+      <c r="A256" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="1">
         <v>255</v>
       </c>
-      <c r="C256">
+      <c r="C256" s="1">
         <v>15</v>
       </c>
-      <c r="D256">
+      <c r="D256" s="1">
         <v>15</v>
       </c>
-      <c r="E256" t="s">
+      <c r="E256" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F256" t="s">
+      <c r="F256" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="G256">
+      <c r="G256" s="2">
         <v>255</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A257" t="s">
+      <c r="A257" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="1">
         <v>256</v>
       </c>
-      <c r="C257">
+      <c r="C257" s="1">
         <v>15</v>
       </c>
-      <c r="D257">
+      <c r="D257" s="1">
         <v>16</v>
       </c>
-      <c r="E257" t="s">
+      <c r="E257" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F257" t="s">
+      <c r="F257" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="G257">
+      <c r="G257" s="2">
         <v>256</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A258" t="s">
+      <c r="A258" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B258">
+      <c r="B258" s="1">
         <v>257</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="1">
         <v>16</v>
       </c>
-      <c r="D258">
+      <c r="D258" s="1">
         <v>16</v>
       </c>
-      <c r="E258" t="s">
+      <c r="E258" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F258" t="s">
+      <c r="F258" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="G258">
+      <c r="G258" s="2">
         <v>264</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A259" t="s">
+      <c r="A259" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B259">
+      <c r="B259" s="1">
         <v>258</v>
       </c>
-      <c r="C259">
+      <c r="C259" s="1">
         <v>16</v>
       </c>
-      <c r="D259">
+      <c r="D259" s="1">
         <v>15</v>
       </c>
-      <c r="E259" t="s">
+      <c r="E259" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F259" t="s">
+      <c r="F259" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="G259">
+      <c r="G259" s="2">
         <v>263</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A260" t="s">
+      <c r="A260" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B260">
+      <c r="B260" s="1">
         <v>259</v>
       </c>
-      <c r="C260">
+      <c r="C260" s="1">
         <v>16</v>
       </c>
-      <c r="D260">
+      <c r="D260" s="1">
         <v>14</v>
       </c>
-      <c r="E260" t="s">
+      <c r="E260" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F260" t="s">
+      <c r="F260" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="G260">
+      <c r="G260" s="2">
         <v>262</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A261" t="s">
+      <c r="A261" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B261">
+      <c r="B261" s="1">
         <v>260</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="1">
         <v>16</v>
       </c>
-      <c r="D261">
+      <c r="D261" s="1">
         <v>13</v>
       </c>
-      <c r="E261" t="s">
+      <c r="E261" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F261" t="s">
+      <c r="F261" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="G261">
+      <c r="G261" s="2">
         <v>261</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A262" t="s">
+      <c r="A262" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="1">
         <v>261</v>
       </c>
-      <c r="C262">
+      <c r="C262" s="1">
         <v>16</v>
       </c>
-      <c r="D262">
+      <c r="D262" s="1">
         <v>12</v>
       </c>
-      <c r="E262" t="s">
+      <c r="E262" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="F262" t="s">
+      <c r="F262" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="G262">
+      <c r="G262" s="2">
         <v>260</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A263" t="s">
+      <c r="A263" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="1">
         <v>262</v>
       </c>
-      <c r="C263">
+      <c r="C263" s="1">
         <v>16</v>
       </c>
-      <c r="D263">
+      <c r="D263" s="1">
         <v>11</v>
       </c>
-      <c r="E263" t="s">
+      <c r="E263" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F263" t="s">
+      <c r="F263" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="G263">
+      <c r="G263" s="2">
         <v>259</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A264" t="s">
+      <c r="A264" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="1">
         <v>263</v>
       </c>
-      <c r="C264">
+      <c r="C264" s="1">
         <v>16</v>
       </c>
-      <c r="D264">
+      <c r="D264" s="1">
         <v>10</v>
       </c>
-      <c r="E264" t="s">
+      <c r="E264" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A265" t="s">
+      <c r="A265" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="1">
         <v>264</v>
       </c>
-      <c r="C265">
+      <c r="C265" s="1">
         <v>16</v>
       </c>
-      <c r="D265">
+      <c r="D265" s="1">
         <v>9</v>
       </c>
-      <c r="E265" t="s">
+      <c r="E265" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F265" t="s">
+      <c r="F265" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="G265">
+      <c r="G265" s="2">
         <v>257</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A266" t="s">
+      <c r="A266" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B266">
+      <c r="B266" s="1">
         <v>265</v>
       </c>
-      <c r="C266">
+      <c r="C266" s="1">
         <v>17</v>
       </c>
-      <c r="D266">
+      <c r="D266" s="1">
         <v>9</v>
       </c>
-      <c r="E266" t="s">
+      <c r="E266" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F266" t="s">
+      <c r="F266" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G266">
+      <c r="G266" s="2">
         <v>265</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A267" t="s">
+      <c r="A267" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="1">
         <v>266</v>
       </c>
-      <c r="C267">
+      <c r="C267" s="1">
         <v>17</v>
       </c>
-      <c r="D267">
+      <c r="D267" s="1">
         <v>10</v>
       </c>
-      <c r="E267" t="s">
+      <c r="E267" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F267" t="s">
+      <c r="F267" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="G267">
+      <c r="G267" s="2">
         <v>266</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A268" t="s">
+      <c r="A268" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B268">
+      <c r="B268" s="1">
         <v>267</v>
       </c>
-      <c r="C268">
+      <c r="C268" s="1">
         <v>17</v>
       </c>
-      <c r="D268">
+      <c r="D268" s="1">
         <v>11</v>
       </c>
-      <c r="E268" t="s">
+      <c r="E268" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F268" t="s">
+      <c r="F268" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="G268">
+      <c r="G268" s="2">
         <v>267</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A269" t="s">
+      <c r="A269" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B269">
+      <c r="B269" s="1">
         <v>268</v>
       </c>
-      <c r="C269">
+      <c r="C269" s="1">
         <v>17</v>
       </c>
-      <c r="D269">
+      <c r="D269" s="1">
         <v>12</v>
       </c>
-      <c r="E269" t="s">
+      <c r="E269" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F269" t="s">
+      <c r="F269" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="G269">
+      <c r="G269" s="2">
         <v>268</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A270" t="s">
+      <c r="A270" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B270">
+      <c r="B270" s="1">
         <v>269</v>
       </c>
-      <c r="C270">
+      <c r="C270" s="1">
         <v>17</v>
       </c>
-      <c r="D270">
+      <c r="D270" s="1">
         <v>13</v>
       </c>
-      <c r="E270" t="s">
+      <c r="E270" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F270" t="s">
+      <c r="F270" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="G270">
+      <c r="G270" s="2">
         <v>269</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A271" t="s">
+      <c r="A271" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B271">
+      <c r="B271" s="1">
         <v>270</v>
       </c>
-      <c r="C271">
+      <c r="C271" s="1">
         <v>17</v>
       </c>
-      <c r="D271">
+      <c r="D271" s="1">
         <v>14</v>
       </c>
-      <c r="E271" t="s">
+      <c r="E271" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="F271" t="s">
+      <c r="F271" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="G271">
+      <c r="G271" s="2">
         <v>270</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A272" t="s">
+      <c r="A272" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B272">
+      <c r="B272" s="1">
         <v>271</v>
       </c>
-      <c r="C272">
+      <c r="C272" s="1">
         <v>17</v>
       </c>
-      <c r="D272">
+      <c r="D272" s="1">
         <v>15</v>
       </c>
-      <c r="E272" t="s">
+      <c r="E272" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F272" t="s">
+      <c r="F272" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="G272">
+      <c r="G272" s="2">
         <v>271</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A273" t="s">
+      <c r="A273" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B273">
+      <c r="B273" s="1">
         <v>272</v>
       </c>
-      <c r="C273">
+      <c r="C273" s="1">
         <v>17</v>
       </c>
-      <c r="D273">
+      <c r="D273" s="1">
         <v>16</v>
       </c>
-      <c r="E273" t="s">
+      <c r="E273" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="F273" t="s">
+      <c r="F273" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="G273">
+      <c r="G273" s="2">
         <v>272</v>
       </c>
     </row>
